--- a/observations/orbit_plans/mtp098/nomad_mtp098_plan.xlsx
+++ b/observations/orbit_plans/mtp098/nomad_mtp098_plan.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp098\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74A6335-3326-4CE2-8023-18034DCC7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1702,8 +1721,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1740,13 +1759,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1784,7 +1811,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1818,6 +1845,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1852,9 +1880,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2027,14 +2056,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2089,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2121,7 +2153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2135,7 +2167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2167,7 +2199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2184,7 +2216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2216,7 +2248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2239,7 +2271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -2253,7 +2285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2276,7 +2308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2290,7 +2322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2322,7 +2354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2336,7 +2368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2368,7 +2400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2400,7 +2432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2414,7 +2446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2446,7 +2478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2460,7 +2492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2492,7 +2524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2509,7 +2541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2532,7 +2564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2564,7 +2596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2581,7 +2613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2613,7 +2645,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2627,7 +2659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2659,7 +2691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2691,7 +2723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2705,7 +2737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2737,7 +2769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2751,7 +2783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2783,7 +2815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2797,7 +2829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2820,7 +2852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2834,7 +2866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2857,7 +2889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2871,7 +2903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2903,7 +2935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2920,7 +2952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2934,7 +2966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2966,7 +2998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2998,7 +3030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -3012,7 +3044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3044,7 +3076,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -3058,7 +3090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7</v>
       </c>
@@ -3075,7 +3107,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3098,7 +3130,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -3112,7 +3144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3135,7 +3167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3146,7 +3178,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3160,7 +3192,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3192,7 +3224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3209,7 +3241,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3241,7 +3273,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3255,7 +3287,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3266,7 +3298,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3280,7 +3312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3312,7 +3344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3335,7 +3367,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3352,7 +3384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3375,7 +3407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -3389,7 +3421,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3421,7 +3453,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3453,7 +3485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3467,7 +3499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3499,7 +3531,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3513,7 +3545,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3545,7 +3577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14</v>
       </c>
@@ -3559,7 +3591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3579,7 +3611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>14</v>
       </c>
@@ -3590,7 +3622,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3619,7 +3651,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3630,7 +3662,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3644,7 +3676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3661,7 +3693,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3693,7 +3725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3707,7 +3739,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3739,7 +3771,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3750,7 +3782,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3764,7 +3796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3778,7 +3810,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3810,7 +3842,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3842,7 +3874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3856,7 +3888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3888,7 +3920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -3902,7 +3934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3913,7 +3945,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3924,7 +3956,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3941,7 +3973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3973,7 +4005,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4005,7 +4037,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -4019,7 +4051,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4048,7 +4080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>47</v>
       </c>
@@ -4065,7 +4097,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14</v>
       </c>
@@ -4079,7 +4111,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4102,7 +4134,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4134,7 +4166,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -4148,7 +4180,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4177,7 +4209,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>47</v>
       </c>
@@ -4194,7 +4226,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14</v>
       </c>
@@ -4208,7 +4240,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4240,7 +4272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -4254,7 +4286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4289,7 +4321,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4309,7 +4341,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>47</v>
       </c>
@@ -4326,7 +4358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -4340,7 +4372,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4372,7 +4404,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14</v>
       </c>
@@ -4386,7 +4418,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4418,7 +4450,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>14</v>
       </c>
@@ -4429,7 +4461,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -4440,7 +4472,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4463,7 +4495,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14</v>
       </c>
@@ -4477,7 +4509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -4491,7 +4523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4523,7 +4555,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -4537,7 +4569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4551,7 +4583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4583,7 +4615,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4615,7 +4647,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3</v>
       </c>
@@ -4632,7 +4664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4664,7 +4696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4678,7 +4710,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14</v>
       </c>
@@ -4692,7 +4724,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4724,7 +4756,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4756,7 +4788,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4770,7 +4802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4793,7 +4825,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -4807,7 +4839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4830,7 +4862,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4844,7 +4876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4867,7 +4899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4890,7 +4922,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -4904,7 +4936,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4918,7 +4950,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4941,7 +4973,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4955,7 +4987,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4978,7 +5010,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3</v>
       </c>
@@ -4995,7 +5027,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5018,7 +5050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5029,7 +5061,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>47</v>
       </c>
@@ -5043,7 +5075,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -5066,7 +5098,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14</v>
       </c>
@@ -5080,7 +5112,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5103,7 +5135,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14</v>
       </c>
@@ -5117,7 +5149,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -5140,7 +5172,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5163,7 +5195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14</v>
       </c>
@@ -5177,7 +5209,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5200,7 +5232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14</v>
       </c>
@@ -5214,7 +5246,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5237,7 +5269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5260,7 +5292,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>14</v>
       </c>
@@ -5274,7 +5306,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5297,7 +5329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3</v>
       </c>
@@ -5314,7 +5346,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5337,7 +5369,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>14</v>
       </c>
@@ -5351,7 +5383,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>14</v>
       </c>
@@ -5365,7 +5397,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5388,7 +5420,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5411,7 +5443,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5425,7 +5457,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5448,7 +5480,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5462,7 +5494,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5485,7 +5517,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>14</v>
       </c>
@@ -5499,7 +5531,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5522,7 +5554,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5545,7 +5577,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>14</v>
       </c>
@@ -5559,7 +5591,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5582,7 +5614,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3</v>
       </c>
@@ -5599,7 +5631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5622,7 +5654,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5633,7 +5665,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5647,7 +5679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>14</v>
       </c>
@@ -5661,7 +5693,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5684,7 +5716,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14</v>
       </c>
@@ -5698,7 +5730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -5721,7 +5753,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>14</v>
       </c>
@@ -5735,7 +5767,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5749,7 +5781,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5772,7 +5804,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5795,7 +5827,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3</v>
       </c>
@@ -5812,7 +5844,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5835,7 +5867,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>14</v>
       </c>
@@ -5849,7 +5881,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5863,7 +5895,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5886,7 +5918,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5900,7 +5932,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5923,7 +5955,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5946,7 +5978,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>14</v>
       </c>
@@ -5960,7 +5992,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5983,7 +6015,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3</v>
       </c>
@@ -6000,7 +6032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6023,7 +6055,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14</v>
       </c>
@@ -6037,7 +6069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6060,7 +6092,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6083,7 +6115,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14</v>
       </c>
@@ -6097,7 +6129,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6120,7 +6152,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -6134,7 +6166,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6157,7 +6189,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6180,7 +6212,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6191,7 +6223,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>47</v>
       </c>
@@ -6205,7 +6237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14</v>
       </c>
@@ -6219,7 +6251,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6242,7 +6274,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3</v>
       </c>
@@ -6259,7 +6291,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -6282,7 +6314,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6305,7 +6337,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6319,7 +6351,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>14</v>
       </c>
@@ -6333,7 +6365,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6356,7 +6388,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>14</v>
       </c>
@@ -6370,7 +6402,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6396,7 +6428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6410,7 +6442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6433,7 +6465,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -6456,7 +6488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>14</v>
       </c>
@@ -6467,7 +6499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>14</v>
       </c>
@@ -6478,7 +6510,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1</v>
       </c>
@@ -6501,7 +6533,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3</v>
       </c>
@@ -6518,7 +6550,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6532,7 +6564,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6555,7 +6587,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6566,7 +6598,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>47</v>
       </c>
@@ -6580,7 +6612,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>14</v>
       </c>
@@ -6594,7 +6626,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1</v>
       </c>
@@ -6617,7 +6649,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6640,7 +6672,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>14</v>
       </c>
@@ -6654,7 +6686,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
@@ -6677,7 +6709,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3</v>
       </c>
@@ -6694,7 +6726,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6717,7 +6749,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
@@ -6740,7 +6772,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14</v>
       </c>
@@ -6754,7 +6786,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6777,7 +6809,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>14</v>
       </c>
@@ -6788,7 +6820,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>47</v>
       </c>
@@ -6802,7 +6834,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -6825,7 +6857,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
@@ -6848,7 +6880,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>14</v>
       </c>
@@ -6862,7 +6894,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1</v>
       </c>
@@ -6885,7 +6917,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>14</v>
       </c>
@@ -6899,7 +6931,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -6922,7 +6954,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3</v>
       </c>
@@ -6939,7 +6971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
@@ -6962,7 +6994,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -6985,7 +7017,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14</v>
       </c>
@@ -6999,7 +7031,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -7019,7 +7051,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>47</v>
       </c>
@@ -7033,7 +7065,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>14</v>
       </c>
@@ -7047,7 +7079,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7070,7 +7102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>14</v>
       </c>
@@ -7084,7 +7116,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -7107,7 +7139,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -7130,7 +7162,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>14</v>
       </c>
@@ -7144,7 +7176,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7167,7 +7199,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>14</v>
       </c>
@@ -7181,7 +7213,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>14</v>
       </c>
@@ -7192,7 +7224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7203,7 +7235,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>14</v>
       </c>
@@ -7217,7 +7249,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7240,7 +7272,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -7263,7 +7295,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>3</v>
       </c>
@@ -7280,7 +7312,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7303,7 +7335,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>14</v>
       </c>
@@ -7317,7 +7349,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -7340,7 +7372,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7363,7 +7395,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7377,7 +7409,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7400,7 +7432,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>14</v>
       </c>
@@ -7414,7 +7446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7437,7 +7469,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>14</v>
       </c>
@@ -7451,7 +7483,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>14</v>
       </c>
@@ -7465,7 +7497,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7488,7 +7520,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7511,7 +7543,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3</v>
       </c>
@@ -7528,7 +7560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -7551,7 +7583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>14</v>
       </c>
@@ -7565,7 +7597,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>14</v>
       </c>
@@ -7579,7 +7611,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7602,7 +7634,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>14</v>
       </c>
@@ -7616,7 +7648,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7639,7 +7671,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -7653,7 +7685,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -7676,7 +7708,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>14</v>
       </c>
@@ -7690,7 +7722,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -7713,7 +7745,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>14</v>
       </c>
@@ -7727,7 +7759,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -7747,7 +7779,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>47</v>
       </c>
@@ -7761,7 +7793,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -7784,7 +7816,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>14</v>
       </c>
@@ -7798,7 +7830,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -7821,7 +7853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3</v>
       </c>
@@ -7838,7 +7870,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1</v>
       </c>
@@ -7861,7 +7893,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1</v>
       </c>
@@ -7884,7 +7916,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>14</v>
       </c>
@@ -7898,7 +7930,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14</v>
       </c>
@@ -7912,7 +7944,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>14</v>
       </c>
@@ -7926,7 +7958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -7949,7 +7981,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>14</v>
       </c>
@@ -7963,7 +7995,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
@@ -7986,7 +8018,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8000,7 +8032,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8023,7 +8055,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8046,7 +8078,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8057,7 +8089,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>14</v>
       </c>
@@ -8068,7 +8100,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1</v>
       </c>
@@ -8091,7 +8123,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3</v>
       </c>
@@ -8108,7 +8140,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8131,7 +8163,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8145,7 +8177,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>14</v>
       </c>
@@ -8159,7 +8191,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
@@ -8182,7 +8214,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
@@ -8214,7 +8246,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8228,7 +8260,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -8260,7 +8292,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>14</v>
       </c>
@@ -8274,7 +8306,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8306,7 +8338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8317,7 +8349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -8331,7 +8363,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1</v>
       </c>
@@ -8363,7 +8395,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>3</v>
       </c>
@@ -8380,7 +8412,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1</v>
       </c>
@@ -8403,7 +8435,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8417,7 +8449,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8449,7 +8481,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>14</v>
       </c>
@@ -8463,7 +8495,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
@@ -8495,7 +8527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>14</v>
       </c>
@@ -8509,7 +8541,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1</v>
       </c>
@@ -8541,7 +8573,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>14</v>
       </c>
@@ -8555,7 +8587,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
@@ -8587,7 +8619,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>28</v>
       </c>
@@ -8601,7 +8633,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>14</v>
       </c>
@@ -8615,7 +8647,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>3</v>
       </c>
@@ -8632,7 +8664,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
@@ -8664,7 +8696,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1</v>
       </c>
@@ -8687,7 +8719,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>14</v>
       </c>
@@ -8701,7 +8733,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>14</v>
       </c>
@@ -8712,7 +8744,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -8726,7 +8758,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1</v>
       </c>
@@ -8758,7 +8790,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>14</v>
       </c>
@@ -8772,7 +8804,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>14</v>
       </c>
@@ -8786,7 +8818,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>14</v>
       </c>
@@ -8800,7 +8832,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1</v>
       </c>
